--- a/user-data/poorest20pct-percentages/poorest20pct-percentages.xlsx
+++ b/user-data/poorest20pct-percentages/poorest20pct-percentages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="440">
   <si>
     <t>id</t>
   </si>
@@ -1313,9 +1313,6 @@
   </si>
   <si>
     <t>Source: Development Initiatives calculations based on World Bank povcalnet</t>
-  </si>
-  <si>
-    <t>Source-link: NA</t>
   </si>
   <si>
     <t/>
@@ -1700,32 +1697,32 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="13">
@@ -1741,11 +1738,6 @@
     <row r="15">
       <c r="A15" t="s">
         <v>439</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>440</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/poorest20pct-percentages/poorest20pct-percentages.xlsx
+++ b/user-data/poorest20pct-percentages/poorest20pct-percentages.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Data-wide" sheetId="3" r:id="rId3"/>
+    <sheet name="Data-wide-value" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -1321,7 +1321,7 @@
     <t>Notes:</t>
   </si>
   <si>
-    <t>On the 'Data-wide' sheet, we have provided the indicator in a wide format. The values you see listed there are only from the 'value' column.</t>
+    <t>On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
   </si>
   <si>
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>

--- a/user-data/poorest20pct-percentages/poorest20pct-percentages.xlsx
+++ b/user-data/poorest20pct-percentages/poorest20pct-percentages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="441">
   <si>
     <t>id</t>
   </si>
@@ -1327,7 +1327,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -1740,6 +1743,11 @@
         <v>439</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>440</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/user-data/poorest20pct-percentages/poorest20pct-percentages.xlsx
+++ b/user-data/poorest20pct-percentages/poorest20pct-percentages.xlsx
@@ -67,7 +67,7 @@
     <t>AG</t>
   </si>
   <si>
-    <t>Antigua and Barbuda</t>
+    <t>Antigua &amp; Barbuda</t>
   </si>
   <si>
     <t>AR</t>
@@ -175,7 +175,7 @@
     <t>BA</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
+    <t>Bosnia &amp; Herzegovina</t>
   </si>
   <si>
     <t>BW</t>
@@ -214,88 +214,88 @@
     <t>Burundi</t>
   </si>
   <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>CAR</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>TD</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
     <t>CI</t>
   </si>
   <si>
-    <t>CÃ´te d'Ivoire</t>
-  </si>
-  <si>
-    <t>KH</t>
-  </si>
-  <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
-    <t>CM</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>CV</t>
-  </si>
-  <si>
-    <t>Cape Verde</t>
-  </si>
-  <si>
-    <t>CF</t>
-  </si>
-  <si>
-    <t>CAR</t>
-  </si>
-  <si>
-    <t>KY</t>
-  </si>
-  <si>
-    <t>Cayman Islands</t>
-  </si>
-  <si>
-    <t>TD</t>
-  </si>
-  <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>CL</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>CN</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>KM</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
-    <t>CG</t>
-  </si>
-  <si>
-    <t>Congo</t>
-  </si>
-  <si>
-    <t>CR</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
+    <t>Cote d'Ivoire</t>
   </si>
   <si>
     <t>HR</t>
@@ -313,7 +313,7 @@
     <t>CW</t>
   </si>
   <si>
-    <t>CuraÃ§ao</t>
+    <t>Curacao</t>
   </si>
   <si>
     <t>CY</t>
@@ -991,7 +991,7 @@
     <t>VC</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
+    <t>Saint Vincent &amp; the Grenadines</t>
   </si>
   <si>
     <t>WS</t>
@@ -1009,7 +1009,7 @@
     <t>ST</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
+    <t>Sao Tome &amp; Principe</t>
   </si>
   <si>
     <t>SA</t>
@@ -1183,7 +1183,7 @@
     <t>TT</t>
   </si>
   <si>
-    <t>Trinidad and Tobago</t>
+    <t>Trinidad &amp; Tobago</t>
   </si>
   <si>
     <t>TN</t>
@@ -1207,7 +1207,7 @@
     <t>TC</t>
   </si>
   <si>
-    <t>Turks and Caicos Islands</t>
+    <t>Turks &amp; Caicos Islands</t>
   </si>
   <si>
     <t>TV</t>
@@ -1228,18 +1228,18 @@
     <t>Uganda</t>
   </si>
   <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
     <t>UA</t>
   </si>
   <si>
     <t>Ukraine</t>
   </si>
   <si>
-    <t>GB</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
     <t>UY</t>
   </si>
   <si>
@@ -1336,7 +1336,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>
@@ -2195,7 +2195,7 @@
         <v>2011</v>
       </c>
       <c r="D33" t="n">
-        <v>45.69</v>
+        <v>19.35</v>
       </c>
     </row>
     <row r="34">
@@ -2209,7 +2209,7 @@
         <v>2011</v>
       </c>
       <c r="D34" t="n">
-        <v>19.35</v>
+        <v>33.43</v>
       </c>
     </row>
     <row r="35">
@@ -2222,9 +2222,7 @@
       <c r="C35" t="n">
         <v>2011</v>
       </c>
-      <c r="D35" t="n">
-        <v>33.43</v>
-      </c>
+      <c r="D35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
@@ -2236,7 +2234,9 @@
       <c r="C36" t="n">
         <v>2011</v>
       </c>
-      <c r="D36"/>
+      <c r="D36" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
@@ -2249,7 +2249,7 @@
         <v>2011</v>
       </c>
       <c r="D37" t="n">
-        <v>18</v>
+        <v>63.86</v>
       </c>
     </row>
     <row r="38">
@@ -2262,9 +2262,7 @@
       <c r="C38" t="n">
         <v>2011</v>
       </c>
-      <c r="D38" t="n">
-        <v>63.86</v>
-      </c>
+      <c r="D38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
@@ -2276,7 +2274,9 @@
       <c r="C39" t="n">
         <v>2011</v>
       </c>
-      <c r="D39"/>
+      <c r="D39" t="n">
+        <v>44.68</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
@@ -2289,7 +2289,7 @@
         <v>2011</v>
       </c>
       <c r="D40" t="n">
-        <v>44.68</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="41">
@@ -2303,7 +2303,7 @@
         <v>2011</v>
       </c>
       <c r="D41" t="n">
-        <v>1.16</v>
+        <v>9.89</v>
       </c>
     </row>
     <row r="42">
@@ -2317,7 +2317,7 @@
         <v>2011</v>
       </c>
       <c r="D42" t="n">
-        <v>9.89</v>
+        <v>6.78</v>
       </c>
     </row>
     <row r="43">
@@ -2331,7 +2331,7 @@
         <v>2011</v>
       </c>
       <c r="D43" t="n">
-        <v>6.78</v>
+        <v>55.04</v>
       </c>
     </row>
     <row r="44">
@@ -2345,7 +2345,7 @@
         <v>2011</v>
       </c>
       <c r="D44" t="n">
-        <v>55.04</v>
+        <v>40.88</v>
       </c>
     </row>
     <row r="45">
@@ -2359,7 +2359,7 @@
         <v>2011</v>
       </c>
       <c r="D45" t="n">
-        <v>40.88</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="46">
@@ -2373,7 +2373,7 @@
         <v>2011</v>
       </c>
       <c r="D46" t="n">
-        <v>1.91</v>
+        <v>45.69</v>
       </c>
     </row>
     <row r="47">
@@ -4426,9 +4426,7 @@
       <c r="C202" t="n">
         <v>2011</v>
       </c>
-      <c r="D202" t="n">
-        <v>0</v>
-      </c>
+      <c r="D202"/>
     </row>
     <row r="203">
       <c r="A203" t="s">
@@ -4440,7 +4438,9 @@
       <c r="C203" t="n">
         <v>2011</v>
       </c>
-      <c r="D203"/>
+      <c r="D203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
@@ -4920,7 +4920,7 @@
         <v>67</v>
       </c>
       <c r="C33" t="n">
-        <v>45.69</v>
+        <v>19.35</v>
       </c>
     </row>
     <row r="34">
@@ -4931,7 +4931,7 @@
         <v>69</v>
       </c>
       <c r="C34" t="n">
-        <v>19.35</v>
+        <v>33.43</v>
       </c>
     </row>
     <row r="35">
@@ -4941,9 +4941,7 @@
       <c r="B35" t="s">
         <v>71</v>
       </c>
-      <c r="C35" t="n">
-        <v>33.43</v>
-      </c>
+      <c r="C35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
@@ -4952,7 +4950,9 @@
       <c r="B36" t="s">
         <v>73</v>
       </c>
-      <c r="C36"/>
+      <c r="C36" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
@@ -4962,7 +4962,7 @@
         <v>75</v>
       </c>
       <c r="C37" t="n">
-        <v>18</v>
+        <v>63.86</v>
       </c>
     </row>
     <row r="38">
@@ -4972,9 +4972,7 @@
       <c r="B38" t="s">
         <v>77</v>
       </c>
-      <c r="C38" t="n">
-        <v>63.86</v>
-      </c>
+      <c r="C38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
@@ -4983,7 +4981,9 @@
       <c r="B39" t="s">
         <v>79</v>
       </c>
-      <c r="C39"/>
+      <c r="C39" t="n">
+        <v>44.68</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
@@ -4993,7 +4993,7 @@
         <v>81</v>
       </c>
       <c r="C40" t="n">
-        <v>44.68</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="41">
@@ -5004,7 +5004,7 @@
         <v>83</v>
       </c>
       <c r="C41" t="n">
-        <v>1.16</v>
+        <v>9.89</v>
       </c>
     </row>
     <row r="42">
@@ -5015,7 +5015,7 @@
         <v>85</v>
       </c>
       <c r="C42" t="n">
-        <v>9.89</v>
+        <v>6.78</v>
       </c>
     </row>
     <row r="43">
@@ -5026,7 +5026,7 @@
         <v>87</v>
       </c>
       <c r="C43" t="n">
-        <v>6.78</v>
+        <v>55.04</v>
       </c>
     </row>
     <row r="44">
@@ -5037,7 +5037,7 @@
         <v>89</v>
       </c>
       <c r="C44" t="n">
-        <v>55.04</v>
+        <v>40.88</v>
       </c>
     </row>
     <row r="45">
@@ -5048,7 +5048,7 @@
         <v>91</v>
       </c>
       <c r="C45" t="n">
-        <v>40.88</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="46">
@@ -5059,7 +5059,7 @@
         <v>93</v>
       </c>
       <c r="C46" t="n">
-        <v>1.91</v>
+        <v>45.69</v>
       </c>
     </row>
     <row r="47">
@@ -6644,9 +6644,7 @@
       <c r="B202" t="s">
         <v>405</v>
       </c>
-      <c r="C202" t="n">
-        <v>0</v>
-      </c>
+      <c r="C202"/>
     </row>
     <row r="203">
       <c r="A203" t="s">
@@ -6655,7 +6653,9 @@
       <c r="B203" t="s">
         <v>407</v>
       </c>
-      <c r="C203"/>
+      <c r="C203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
